--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMERCIAL-03\Desktop\Leo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grau Comercial\Desktop\Tecnico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FEB3B-445A-407F-8AA2-2D4CB31C2352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204EEEDD-925B-47D7-B53E-CDD9B435DD6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="103">
   <si>
     <t>Curso</t>
   </si>
@@ -56,9 +56,6 @@
     <t>MANHÃ</t>
   </si>
   <si>
-    <t>ADM10-M</t>
-  </si>
-  <si>
     <t>2ª 3ª 4ª</t>
   </si>
   <si>
@@ -68,18 +65,9 @@
     <t>7ª</t>
   </si>
   <si>
-    <t>Estatística Básica</t>
-  </si>
-  <si>
     <t>NOITE</t>
   </si>
   <si>
-    <t>ADM11-N</t>
-  </si>
-  <si>
-    <t>2ª 4ª 5ª</t>
-  </si>
-  <si>
     <t>ENFERMAGEM</t>
   </si>
   <si>
@@ -239,9 +227,6 @@
     <t xml:space="preserve">História da Enfermagem </t>
   </si>
   <si>
-    <t>Informática Aplicada</t>
-  </si>
-  <si>
     <t>Inglês Instrumental</t>
   </si>
   <si>
@@ -257,12 +242,6 @@
     <t>Empreendedorismo</t>
   </si>
   <si>
-    <t>RAD18-N</t>
-  </si>
-  <si>
-    <t>Radiobiologia</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -353,10 +332,10 @@
     <t>Wesley</t>
   </si>
   <si>
-    <t>ENF33-N</t>
-  </si>
-  <si>
-    <t>ANATOMIA</t>
+    <t>ADM13-N</t>
+  </si>
+  <si>
+    <t>RAD16-N</t>
   </si>
 </sst>
 </file>
@@ -690,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -738,94 +717,94 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
       <c r="H2" s="1">
-        <v>45784</v>
+        <v>45874</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1">
-        <v>45810</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
-        <v>45799</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -834,24 +813,24 @@
         <v>21</v>
       </c>
       <c r="H5" s="1">
-        <v>45812</v>
+        <v>45847</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -860,859 +839,855 @@
         <v>23</v>
       </c>
       <c r="H6" s="1">
-        <v>45832</v>
+        <v>45867</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="1">
-        <v>45847</v>
+        <v>45887</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>45867</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
-        <v>45887</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="1">
-        <v>45909</v>
+        <v>45822</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1">
-        <v>45796</v>
+        <v>45857</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1">
-        <v>45817</v>
+        <v>45878</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1">
-        <v>45822</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1">
-        <v>45857</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1">
-        <v>45878</v>
+        <v>45969</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1">
-        <v>45906</v>
+        <v>45792</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
       <c r="H17" s="1">
-        <v>45934</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1">
-        <v>45969</v>
+        <v>45846</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1">
-        <v>45792</v>
+        <v>45862</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1">
-        <v>45821</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" s="1">
-        <v>45846</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="1">
-        <v>45862</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1">
-        <v>45881</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1">
-        <v>45898</v>
+        <v>45874</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
       <c r="H25" s="1">
-        <v>45919</v>
+        <v>45822</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
       <c r="H26" s="1">
-        <v>45803</v>
+        <v>45871</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1">
-        <v>45874</v>
+        <v>45927</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
       <c r="H28" s="1">
-        <v>45822</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" s="1">
-        <v>45871</v>
+        <v>46046</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" s="1">
-        <v>45927</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31" s="1">
-        <v>45962</v>
+        <v>45803</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1">
-        <v>46046</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
       <c r="H33" s="1">
-        <v>45783</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="1">
-        <v>45803</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
         <v>66</v>
       </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
       <c r="H35" s="1">
-        <v>45839</v>
+        <v>45798</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H36" s="1">
-        <v>45859</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="1">
-        <v>45881</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="1">
-        <v>45798</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
         <v>48</v>
@@ -1721,210 +1696,112 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="H42" s="1">
+        <v>45881</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45887</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="1">
-        <v>45881</v>
-      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H46" s="1">
-        <v>45887</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="1">
-        <v>45893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="1"/>
+      <c r="H46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1950,156 +1827,156 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3">
         <v>7704</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <v>5207</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
         <v>5709</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
         <v>3501</v>
       </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3">
         <v>4764</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3">
         <v>7309</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3">
         <v>4859</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3">
         <v>2214</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B11" s="3">
         <v>2215</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2132,13 +2009,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,7 +2032,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>8425.2000000000007</v>
@@ -2172,7 +2049,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>8425.2000000000007</v>
@@ -2189,12 +2066,12 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2206,15 +2083,15 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>13523.5</v>
@@ -2223,15 +2100,15 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>19170</v>
@@ -2240,15 +2117,15 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>16730</v>
@@ -2257,12 +2134,12 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2274,15 +2151,15 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>16730</v>
@@ -2291,15 +2168,15 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>19170</v>
@@ -2308,15 +2185,15 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>13668.48</v>
@@ -2325,12 +2202,12 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2342,15 +2219,15 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>13668.48</v>
@@ -2359,7 +2236,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
